--- a/试客数据库设计.xlsx
+++ b/试客数据库设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\shike\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="806" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="806" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user(试客)" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="191">
   <si>
     <t>字段名</t>
   </si>
@@ -297,7 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -422,7 +427,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -463,7 +468,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -549,7 +554,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -572,7 +577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -598,7 +603,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -618,16 +623,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
   </si>
   <si>
     <t>detail_info</t>
-  </si>
-  <si>
-    <t>详情</t>
   </si>
   <si>
     <t>状态</t>
@@ -653,7 +655,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -712,7 +714,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -752,19 +754,17 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,355 +782,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1138,309 +807,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1730,23 +1118,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1830,7 +1218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1858,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:5">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:5">
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +1274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:5">
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1900,7 +1288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="2:5">
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="2:5">
+    <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:5">
+    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1943,29 +1331,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
@@ -1993,7 +1381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>130</v>
       </c>
@@ -2007,7 +1395,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
@@ -2021,7 +1409,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>132</v>
       </c>
@@ -2035,7 +1423,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>134</v>
       </c>
@@ -2049,7 +1437,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>136</v>
       </c>
@@ -2063,7 +1451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>137</v>
       </c>
@@ -2077,7 +1465,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:5">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>138</v>
       </c>
@@ -2091,7 +1479,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:5">
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>141</v>
       </c>
@@ -2105,7 +1493,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:5">
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>143</v>
       </c>
@@ -2119,7 +1507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="2:5">
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>145</v>
       </c>
@@ -2133,7 +1521,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="2:5">
+    <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>147</v>
       </c>
@@ -2147,7 +1535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:5">
+    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>149</v>
       </c>
@@ -2161,7 +1549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="2:5">
+    <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2176,28 +1564,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>119</v>
       </c>
@@ -2225,7 +1613,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2239,7 +1627,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
@@ -2253,7 +1641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>155</v>
       </c>
@@ -2267,7 +1655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>132</v>
       </c>
@@ -2281,7 +1669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
@@ -2295,7 +1683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>106</v>
       </c>
@@ -2309,7 +1697,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:5">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>134</v>
       </c>
@@ -2323,7 +1711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:5">
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
@@ -2334,10 +1722,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>126</v>
       </c>
@@ -2348,33 +1736,33 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,9 +1776,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2399,40 +1787,40 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:5">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -2441,54 +1829,54 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:5">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:5">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>107</v>
@@ -2497,37 +1885,37 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2536,9 +1924,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2547,12 +1935,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2561,12 +1949,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -2575,12 +1963,12 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -2589,40 +1977,40 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:5">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>79</v>
@@ -2631,33 +2019,33 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -2685,7 +2073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -2699,7 +2087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -2713,7 +2101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>41</v>
       </c>
@@ -2727,7 +2115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2742,29 +2130,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -2792,7 +2180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -2820,7 +2208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -2834,7 +2222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -2848,7 +2236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -2863,29 +2251,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -2913,7 +2301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -2927,7 +2315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -2941,7 +2329,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>58</v>
       </c>
@@ -2955,7 +2343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -2969,7 +2357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>62</v>
       </c>
@@ -2983,7 +2371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -2998,30 +2386,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -3049,7 +2437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -3063,7 +2451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -3077,7 +2465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -3091,7 +2479,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -3105,7 +2493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -3119,7 +2507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -3134,30 +2522,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +2559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -3185,7 +2573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -3199,7 +2587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>81</v>
       </c>
@@ -3213,7 +2601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3228,27 +2616,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
@@ -3276,7 +2664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
@@ -3290,7 +2678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
@@ -3304,7 +2692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
@@ -3318,7 +2706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
@@ -3332,7 +2720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -3346,7 +2734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
@@ -3360,7 +2748,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:5">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
@@ -3375,27 +2763,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
@@ -3423,7 +2811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>99</v>
       </c>
@@ -3437,7 +2825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
@@ -3451,7 +2839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>101</v>
       </c>
@@ -3465,7 +2853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
@@ -3479,7 +2867,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
@@ -3493,7 +2881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>109</v>
       </c>
@@ -3507,7 +2895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:5">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
@@ -3521,7 +2909,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:5">
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>113</v>
       </c>
@@ -3535,7 +2923,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:5">
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>115</v>
       </c>
@@ -3549,7 +2937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="2:5">
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>117</v>
       </c>
@@ -3564,28 +2952,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>119</v>
       </c>
@@ -3613,7 +3001,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:5">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
@@ -3627,7 +3015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>122</v>
       </c>
@@ -3641,7 +3029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
@@ -3655,7 +3043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
@@ -3669,7 +3057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
@@ -3683,7 +3071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>126</v>
       </c>
@@ -3698,7 +3086,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>